--- a/translate/Plastid.xlsx
+++ b/translate/Plastid.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,7 +501,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>莛子藨属</t>
+          <t>莲子薰属</t>
         </is>
       </c>
     </row>
@@ -568,468 +568,552 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Euglena</t>
+          <t>Bracteacoccus</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>裸藻属</t>
+          <t>苞球藻属</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Tetradesmus</t>
+          <t>Araucaria</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>四孢藻属</t>
+          <t>南洋杉属</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Araucaria</t>
+          <t>Orthotrichum</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>南洋杉属</t>
+          <t>木灵藓属</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Desmodesmus</t>
+          <t>Pinus</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>德氏藻属</t>
+          <t>松属</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Arisaema</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>桦木属</t>
+          <t>天南星属</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Pectinodesmus</t>
+          <t>Ahnfeltia</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>果胶藻属</t>
+          <t>安丝藻属</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Choristocarpus</t>
+          <t>Desmodesmus</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>线果藻属</t>
+          <t>盘星藻属</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Arisaema</t>
+          <t>Polygonatum</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>天南星属</t>
+          <t>黄精属</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Synura</t>
+          <t>Euglena</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>合尾藻属</t>
+          <t>裸藻属</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Phaeodactylum</t>
+          <t>Tetradesmus</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>褐指藻属</t>
+          <t>四孢藻属</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Bacillaria</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>杆状藻属</t>
+          <t>桦木属</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Koliella</t>
+          <t>Pectinodesmus</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>柯氏藻属</t>
+          <t>果胶藻属</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Coelastrum</t>
+          <t>Choristocarpus</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>集星藻属</t>
+          <t>线果藻属</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Pseudopediastrum</t>
+          <t>Synura</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>拟盘星藻属</t>
+          <t>合尾藻属</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Orthotrichum</t>
+          <t>Phaeodactylum</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>木灵藓属</t>
+          <t>褐指藻属</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Cymbidium</t>
+          <t>Bacillaria</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>兰属</t>
+          <t>杆状藻属</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sarcinofilum</t>
+          <t>Koliella</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>肉丝藻属</t>
+          <t>柯氏藻属</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Coelastrella</t>
+          <t>Coelastrum</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>拟集星藻属</t>
+          <t>集星藻属</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Pleurosigma</t>
+          <t>Pseudopediastrum</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>斜纹藻属</t>
+          <t>拟盘星藻属</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Chlamydomonas</t>
+          <t>Cymbidium</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>衣藻属</t>
+          <t>兰属</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Pleurocladia</t>
+          <t>Sarcinofilum</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>侧枝藻属</t>
+          <t>肉丝藻属</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Pediastrum</t>
+          <t>Coelastrella</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>盘星藻属</t>
+          <t>拟集星藻属</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Lacunastrum</t>
+          <t>Pleurosigma</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>腔星藻属</t>
+          <t>斜纹藻属</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Acanthoceras</t>
+          <t>Chlamydomonas</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>棘冠藻属</t>
+          <t>衣藻属</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Micranthes</t>
+          <t>Pleurocladia</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>微虎耳草属</t>
+          <t>侧枝藻属</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Plagiogrammopsis</t>
+          <t>Pediastrum</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>斜纹藻形属</t>
+          <t>盘星藻属</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Hydrocytium</t>
+          <t>Lacunastrum</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>水胞藻属</t>
+          <t>腔星藻属</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Treubaria</t>
+          <t>Acanthoceras</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>锥囊藻属</t>
+          <t>棘冠藻属</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Glaucocystis</t>
+          <t>Micranthes</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>灰胞藻属</t>
+          <t>微虎耳草属</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Isoetes</t>
+          <t>Plagiogrammopsis</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>水韭属</t>
+          <t>斜纹藻形属</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Micractinium</t>
+          <t>Hydrocytium</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>微芒藻属</t>
+          <t>水胞藻属</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Cocconeiopsis</t>
+          <t>Treubaria</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>拟舟形藻属</t>
+          <t>锥囊藻属</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Teleaulax</t>
+          <t>Glaucocystis</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>细柱藻属</t>
+          <t>灰胞藻属</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Incarvillea</t>
+          <t>Isoetes</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>角蒿属</t>
+          <t>水韭属</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sahlingia</t>
+          <t>Micractinium</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>萨林藻属</t>
+          <t>微芒藻属</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Cressa</t>
+          <t>Cocconeiopsis</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>海枣属</t>
+          <t>拟舟形藻属</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Potamogeton</t>
+          <t>Limnopoa</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>眼子菜属</t>
+          <t>沼禾属</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Viburnum</t>
+          <t>Teleaulax</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>荚蒾属</t>
+          <t>细柱藻属</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
+          <t>Incarvillea</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>角蒿属</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Sahlingia</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>萨林藻属</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Cressa</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>海枣属</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Potamogeton</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>眼子菜属</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Viburnum</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>荚蒾属</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
           <t>Crassula</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>青锁龙属</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Megathyrsus</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>大黍属</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Binuclearia</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>双核藻属</t>
         </is>
       </c>
     </row>
